--- a/biology/Botanique/Promenade_en_planches/Promenade_en_planches.xlsx
+++ b/biology/Botanique/Promenade_en_planches/Promenade_en_planches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une promenade en planches (en anglais boardwalk) est un chemin destiné aux piétons, fait de planches en bois. Ce type d'aménagement est notamment présent le long du littoral ou dans les zones naturelles.
 Un des premiers boardwalks a été celui d'Atlantic City, aux États-Unis. Certains de ces aménagements en bois sur les littoraux sont devenus des attractions touristiques eux-mêmes, c'est notamment le cas des Planches à Deauville, France.
